--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -5,37 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JWS85\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\포크 임시 컴퍼니\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0A99D1-2B03-4476-BA72-CDDF8E714E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52E1726-9A61-40BA-A3C0-68CD6C766C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="810" windowWidth="26775" windowHeight="15405" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.02.26" sheetId="22" r:id="rId2"/>
+    <sheet name="2024.02.27" sheetId="32" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,12 +39,20 @@
     <t>기타</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구분석서 작업 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +88,21 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -206,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -220,29 +234,37 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -549,20 +571,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -574,17 +596,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -592,17 +614,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -610,17 +632,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -628,17 +650,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -646,17 +668,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -664,17 +686,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -682,17 +704,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -714,20 +736,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6ADB3-3307-43FB-8B27-45B79704CA63}">
-  <dimension ref="B2:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E76F57-19D6-41E4-AEBF-F01174A4B387}">
+  <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="7" width="15" customWidth="1"/>
-    <col min="9" max="9" width="53.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:15">
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
@@ -736,26 +758,42 @@
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:15">
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="2:9">
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
       <c r="B4" s="5">
         <v>2</v>
       </c>
@@ -764,10 +802,16 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="2:9">
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
       <c r="B5" s="5">
         <v>3</v>
       </c>
@@ -776,10 +820,16 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="2:9">
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
       <c r="B6" s="5">
         <v>4</v>
       </c>
@@ -788,10 +838,16 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="2:9">
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
       <c r="B7" s="5">
         <v>5</v>
       </c>
@@ -800,10 +856,16 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="2:9">
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
       <c r="B8" s="5">
         <v>6</v>
       </c>
@@ -812,10 +874,16 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="2:9">
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
       <c r="B9" s="9">
         <v>7</v>
       </c>
@@ -824,20 +892,28 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="2"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\포크 임시 컴퍼니\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52E1726-9A61-40BA-A3C0-68CD6C766C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0628A2F3-1292-4E09-9130-2DFF04AB1F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.02.27" sheetId="32" r:id="rId2"/>
+    <sheet name="2024.02.28" sheetId="33" r:id="rId2"/>
+    <sheet name="2024.02.27" sheetId="32" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +46,14 @@
   </si>
   <si>
     <t>요구분석서 작업 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">요구분석서 작업 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -220,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -254,6 +263,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -571,20 +592,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -596,17 +617,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -614,17 +635,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -632,17 +653,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -650,17 +671,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -668,17 +689,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -686,17 +707,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -704,17 +725,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -736,10 +757,195 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B15C92E-9484-4ACD-8B61-739E1475E7F6}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E76F57-19D6-41E4-AEBF-F01174A4B387}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\포크 임시 컴퍼니\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0628A2F3-1292-4E09-9130-2DFF04AB1F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C01119B-9FEA-4793-A2AA-9788D8528D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.02.28" sheetId="33" r:id="rId2"/>
-    <sheet name="2024.02.27" sheetId="32" r:id="rId3"/>
+    <sheet name="2024.02.29" sheetId="34" r:id="rId2"/>
+    <sheet name="2024.02.28" sheetId="33" r:id="rId3"/>
+    <sheet name="2024.02.27" sheetId="32" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +55,14 @@
   </si>
   <si>
     <t xml:space="preserve">요구분석서 작업 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구분석서 명세서 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원등록 수정사항 반영</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -263,6 +272,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -592,20 +613,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -617,17 +638,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -635,17 +656,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -653,17 +674,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -671,17 +692,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -689,17 +710,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -707,17 +728,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -725,17 +746,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -757,10 +778,199 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DE9FE6-A145-4620-80E6-12BC615A383E}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B15C92E-9484-4ACD-8B61-739E1475E7F6}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -941,7 +1151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E76F57-19D6-41E4-AEBF-F01174A4B387}">
   <dimension ref="B2:O14"/>
   <sheetViews>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\포크 임시 컴퍼니\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C01119B-9FEA-4793-A2AA-9788D8528D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FCD519-7307-45FF-88C7-80CCA49E80DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.02.29" sheetId="34" r:id="rId2"/>
-    <sheet name="2024.02.28" sheetId="33" r:id="rId3"/>
-    <sheet name="2024.02.27" sheetId="32" r:id="rId4"/>
+    <sheet name="2024.03.05" sheetId="35" r:id="rId2"/>
+    <sheet name="2024.02.29" sheetId="34" r:id="rId3"/>
+    <sheet name="2024.02.28" sheetId="33" r:id="rId4"/>
+    <sheet name="2024.02.27" sheetId="32" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +64,10 @@
   </si>
   <si>
     <t>사원등록 수정사항 반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소스코드분석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -238,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -272,6 +277,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -613,20 +630,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -638,17 +655,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -656,17 +673,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -674,17 +691,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -692,17 +709,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -710,17 +727,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -728,17 +745,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -746,17 +763,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -778,10 +795,199 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FA9474-E63D-4D2C-97E0-84F375B3C5D8}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DE9FE6-A145-4620-80E6-12BC615A383E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -966,7 +1172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B15C92E-9484-4ACD-8B61-739E1475E7F6}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1151,7 +1357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E76F57-19D6-41E4-AEBF-F01174A4B387}">
   <dimension ref="B2:O14"/>
   <sheetViews>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\포크 임시 컴퍼니\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FCD519-7307-45FF-88C7-80CCA49E80DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4E7D86-C97E-40C0-876B-6A143F4C5FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.03.05" sheetId="35" r:id="rId2"/>
-    <sheet name="2024.02.29" sheetId="34" r:id="rId3"/>
-    <sheet name="2024.02.28" sheetId="33" r:id="rId4"/>
-    <sheet name="2024.02.27" sheetId="32" r:id="rId5"/>
+    <sheet name="2024.03.06" sheetId="36" r:id="rId2"/>
+    <sheet name="2024.03.05" sheetId="35" r:id="rId3"/>
+    <sheet name="2024.02.29" sheetId="34" r:id="rId4"/>
+    <sheet name="2024.02.28" sheetId="33" r:id="rId5"/>
+    <sheet name="2024.02.27" sheetId="32" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +69,10 @@
   </si>
   <si>
     <t>소스코드분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개별숙제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -277,6 +282,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -630,20 +647,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -655,17 +672,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -673,17 +690,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -691,17 +708,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -709,17 +726,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -727,17 +744,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -745,17 +762,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -763,17 +780,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -795,10 +812,199 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EF298E-C04F-48C4-8D05-B4A530AD3F9B}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FA9474-E63D-4D2C-97E0-84F375B3C5D8}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -983,7 +1189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DE9FE6-A145-4620-80E6-12BC615A383E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1172,7 +1378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B15C92E-9484-4ACD-8B61-739E1475E7F6}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1357,7 +1563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E76F57-19D6-41E4-AEBF-F01174A4B387}">
   <dimension ref="B2:O14"/>
   <sheetViews>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\포크 임시 컴퍼니\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4E7D86-C97E-40C0-876B-6A143F4C5FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DAF97F-9EFF-441C-A615-657FE02A6C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.03.06" sheetId="36" r:id="rId2"/>
-    <sheet name="2024.03.05" sheetId="35" r:id="rId3"/>
-    <sheet name="2024.02.29" sheetId="34" r:id="rId4"/>
-    <sheet name="2024.02.28" sheetId="33" r:id="rId5"/>
-    <sheet name="2024.02.27" sheetId="32" r:id="rId6"/>
+    <sheet name="2024.03.07" sheetId="37" r:id="rId2"/>
+    <sheet name="2024.03.06" sheetId="36" r:id="rId3"/>
+    <sheet name="2024.03.05" sheetId="35" r:id="rId4"/>
+    <sheet name="2024.02.29" sheetId="34" r:id="rId5"/>
+    <sheet name="2024.02.28" sheetId="33" r:id="rId6"/>
+    <sheet name="2024.02.27" sheetId="32" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +74,10 @@
   </si>
   <si>
     <t>개별숙제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집 작업환경 조성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -282,6 +287,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -647,20 +664,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -672,17 +689,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -690,17 +707,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -708,17 +725,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -726,17 +743,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -744,17 +761,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -762,17 +779,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -780,17 +797,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -812,11 +829,200 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68D4942-BE5E-439E-A212-3B61CCE9CD5C}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EF298E-C04F-48C4-8D05-B4A530AD3F9B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1000,7 +1206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FA9474-E63D-4D2C-97E0-84F375B3C5D8}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1189,7 +1395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DE9FE6-A145-4620-80E6-12BC615A383E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1378,7 +1584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B15C92E-9484-4ACD-8B61-739E1475E7F6}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1563,7 +1769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E76F57-19D6-41E4-AEBF-F01174A4B387}">
   <dimension ref="B2:O14"/>
   <sheetViews>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\포크 임시 컴퍼니\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DAF97F-9EFF-441C-A615-657FE02A6C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4256422C-144A-4ED4-973D-1714BEDB8EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.03.07" sheetId="37" r:id="rId2"/>
-    <sheet name="2024.03.06" sheetId="36" r:id="rId3"/>
-    <sheet name="2024.03.05" sheetId="35" r:id="rId4"/>
-    <sheet name="2024.02.29" sheetId="34" r:id="rId5"/>
-    <sheet name="2024.02.28" sheetId="33" r:id="rId6"/>
-    <sheet name="2024.02.27" sheetId="32" r:id="rId7"/>
+    <sheet name="2024.03.11" sheetId="38" r:id="rId2"/>
+    <sheet name="2024.03.07" sheetId="37" r:id="rId3"/>
+    <sheet name="2024.03.06" sheetId="36" r:id="rId4"/>
+    <sheet name="2024.03.05" sheetId="35" r:id="rId5"/>
+    <sheet name="2024.02.29" sheetId="34" r:id="rId6"/>
+    <sheet name="2024.02.28" sheetId="33" r:id="rId7"/>
+    <sheet name="2024.02.27" sheetId="32" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +79,14 @@
   </si>
   <si>
     <t>집 작업환경 조성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 복습</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -253,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -287,6 +296,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -664,20 +685,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -689,17 +710,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -707,17 +728,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -725,17 +746,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -743,17 +764,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -761,17 +782,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -779,17 +800,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -797,17 +818,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -829,10 +850,203 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EEC015-DF16-475A-A259-9FC95CB91A71}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68D4942-BE5E-439E-A212-3B61CCE9CD5C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -1017,7 +1231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EF298E-C04F-48C4-8D05-B4A530AD3F9B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1206,7 +1420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FA9474-E63D-4D2C-97E0-84F375B3C5D8}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1395,7 +1609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DE9FE6-A145-4620-80E6-12BC615A383E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1584,7 +1798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B15C92E-9484-4ACD-8B61-739E1475E7F6}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1769,7 +1983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E76F57-19D6-41E4-AEBF-F01174A4B387}">
   <dimension ref="B2:O14"/>
   <sheetViews>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\포크 임시 컴퍼니\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4256422C-144A-4ED4-973D-1714BEDB8EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38A9D9B-0585-4B23-A542-91D8E1465EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.03.11" sheetId="38" r:id="rId2"/>
-    <sheet name="2024.03.07" sheetId="37" r:id="rId3"/>
-    <sheet name="2024.03.06" sheetId="36" r:id="rId4"/>
-    <sheet name="2024.03.05" sheetId="35" r:id="rId5"/>
-    <sheet name="2024.02.29" sheetId="34" r:id="rId6"/>
-    <sheet name="2024.02.28" sheetId="33" r:id="rId7"/>
-    <sheet name="2024.02.27" sheetId="32" r:id="rId8"/>
+    <sheet name="2024.03.12" sheetId="39" r:id="rId2"/>
+    <sheet name="2024.03.11" sheetId="38" r:id="rId3"/>
+    <sheet name="2024.03.07" sheetId="37" r:id="rId4"/>
+    <sheet name="2024.03.06" sheetId="36" r:id="rId5"/>
+    <sheet name="2024.03.05" sheetId="35" r:id="rId6"/>
+    <sheet name="2024.02.29" sheetId="34" r:id="rId7"/>
+    <sheet name="2024.02.28" sheetId="33" r:id="rId8"/>
+    <sheet name="2024.02.27" sheetId="32" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="15">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +88,10 @@
   </si>
   <si>
     <t>스프링 복습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 프로젝트 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -262,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -296,6 +301,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -685,20 +702,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -710,17 +727,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -728,17 +745,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -746,17 +763,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -764,17 +781,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -782,17 +799,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -800,17 +817,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -818,17 +835,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -850,10 +867,203 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05416A26-6033-4D7A-8914-D7DA628CCE3C}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EEC015-DF16-475A-A259-9FC95CB91A71}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -1042,7 +1252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68D4942-BE5E-439E-A212-3B61CCE9CD5C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1231,7 +1441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EF298E-C04F-48C4-8D05-B4A530AD3F9B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1420,7 +1630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FA9474-E63D-4D2C-97E0-84F375B3C5D8}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1609,7 +1819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DE9FE6-A145-4620-80E6-12BC615A383E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1798,7 +2008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B15C92E-9484-4ACD-8B61-739E1475E7F6}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1983,7 +2193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E76F57-19D6-41E4-AEBF-F01174A4B387}">
   <dimension ref="B2:O14"/>
   <sheetViews>

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -5,23 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\포크 임시 컴퍼니\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\포크 임시 컴퍼니\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38A9D9B-0585-4B23-A542-91D8E1465EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411EB115-1223-40A5-A64C-2BF29F38FF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.03.12" sheetId="39" r:id="rId2"/>
-    <sheet name="2024.03.11" sheetId="38" r:id="rId3"/>
-    <sheet name="2024.03.07" sheetId="37" r:id="rId4"/>
-    <sheet name="2024.03.06" sheetId="36" r:id="rId5"/>
-    <sheet name="2024.03.05" sheetId="35" r:id="rId6"/>
-    <sheet name="2024.02.29" sheetId="34" r:id="rId7"/>
-    <sheet name="2024.02.28" sheetId="33" r:id="rId8"/>
-    <sheet name="2024.02.27" sheetId="32" r:id="rId9"/>
+    <sheet name="2024.03.14" sheetId="41" r:id="rId2"/>
+    <sheet name="2024.03.13" sheetId="40" r:id="rId3"/>
+    <sheet name="2024.03.12" sheetId="39" r:id="rId4"/>
+    <sheet name="2024.03.11" sheetId="38" r:id="rId5"/>
+    <sheet name="2024.03.07" sheetId="37" r:id="rId6"/>
+    <sheet name="2024.03.06" sheetId="36" r:id="rId7"/>
+    <sheet name="2024.03.05" sheetId="35" r:id="rId8"/>
+    <sheet name="2024.02.29" sheetId="34" r:id="rId9"/>
+    <sheet name="2024.02.28" sheetId="33" r:id="rId10"/>
+    <sheet name="2024.02.27" sheetId="32" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="18">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +94,18 @@
   </si>
   <si>
     <t>스프링 프로젝트 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개별숙제(jsp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 집 작업환경 조성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 mybatis 기능 공부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -267,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -301,6 +315,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -702,20 +728,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -727,17 +753,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -745,17 +771,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -763,17 +789,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -781,17 +807,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -799,17 +825,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -817,17 +843,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -835,17 +861,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -866,11 +892,767 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B15C92E-9484-4ACD-8B61-739E1475E7F6}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E76F57-19D6-41E4-AEBF-F01174A4B387}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C77DD7-2C61-48F8-9364-33F93C1F0696}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238DA81A-D956-47A7-AAD4-C1D35DEF664B}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11:P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05416A26-6033-4D7A-8914-D7DA628CCE3C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -1059,7 +1841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EEC015-DF16-475A-A259-9FC95CB91A71}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1252,7 +2034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68D4942-BE5E-439E-A212-3B61CCE9CD5C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1441,7 +2223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EF298E-C04F-48C4-8D05-B4A530AD3F9B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1630,7 +2412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FA9474-E63D-4D2C-97E0-84F375B3C5D8}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1819,7 +2601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DE9FE6-A145-4620-80E6-12BC615A383E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2006,374 +2788,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B15C92E-9484-4ACD-8B61-739E1475E7F6}">
-  <dimension ref="B2:O14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="38.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:15" ht="38.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E76F57-19D6-41E4-AEBF-F01174A4B387}">
-  <dimension ref="B2:O14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="38.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:15" ht="38.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -5,25 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\포크 임시 컴퍼니\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411EB115-1223-40A5-A64C-2BF29F38FF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942E7D9C-0D31-48A5-861C-704D2401168C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.03.14" sheetId="41" r:id="rId2"/>
-    <sheet name="2024.03.13" sheetId="40" r:id="rId3"/>
-    <sheet name="2024.03.12" sheetId="39" r:id="rId4"/>
-    <sheet name="2024.03.11" sheetId="38" r:id="rId5"/>
-    <sheet name="2024.03.07" sheetId="37" r:id="rId6"/>
-    <sheet name="2024.03.06" sheetId="36" r:id="rId7"/>
-    <sheet name="2024.03.05" sheetId="35" r:id="rId8"/>
-    <sheet name="2024.02.29" sheetId="34" r:id="rId9"/>
-    <sheet name="2024.02.28" sheetId="33" r:id="rId10"/>
-    <sheet name="2024.02.27" sheetId="32" r:id="rId11"/>
+    <sheet name="2024.03.15" sheetId="42" r:id="rId2"/>
+    <sheet name="2024.03.14" sheetId="41" r:id="rId3"/>
+    <sheet name="2024.03.13" sheetId="40" r:id="rId4"/>
+    <sheet name="2024.03.12" sheetId="39" r:id="rId5"/>
+    <sheet name="2024.03.11" sheetId="38" r:id="rId6"/>
+    <sheet name="2024.03.07" sheetId="37" r:id="rId7"/>
+    <sheet name="2024.03.06" sheetId="36" r:id="rId8"/>
+    <sheet name="2024.03.05" sheetId="35" r:id="rId9"/>
+    <sheet name="2024.02.29" sheetId="34" r:id="rId10"/>
+    <sheet name="2024.02.28" sheetId="33" r:id="rId11"/>
+    <sheet name="2024.02.27" sheetId="32" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="20">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +107,14 @@
   </si>
   <si>
     <t>스프링 mybatis 기능 공부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아파서 진행못함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님께 여쭤볼것</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -281,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -315,6 +324,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -728,20 +749,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -753,17 +774,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -771,17 +792,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -789,17 +810,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -807,17 +828,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -825,17 +846,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -843,17 +864,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -861,17 +882,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -893,6 +914,195 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DE9FE6-A145-4620-80E6-12BC615A383E}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B15C92E-9484-4ACD-8B61-739E1475E7F6}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1077,7 +1287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E76F57-19D6-41E4-AEBF-F01174A4B387}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1263,10 +1473,209 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0956C01-E2C4-40B1-B2D9-3C4AD5615E6E}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C77DD7-2C61-48F8-9364-33F93C1F0696}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -1455,7 +1864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238DA81A-D956-47A7-AAD4-C1D35DEF664B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1648,7 +2057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05416A26-6033-4D7A-8914-D7DA628CCE3C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1841,7 +2250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EEC015-DF16-475A-A259-9FC95CB91A71}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2034,7 +2443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68D4942-BE5E-439E-A212-3B61CCE9CD5C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2223,7 +2632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EF298E-C04F-48C4-8D05-B4A530AD3F9B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2412,7 +2821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FA9474-E63D-4D2C-97E0-84F375B3C5D8}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2599,193 +3008,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DE9FE6-A145-4620-80E6-12BC615A383E}">
-  <dimension ref="B2:O14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="38.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:15" ht="38.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942E7D9C-0D31-48A5-861C-704D2401168C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D5DB4C-D886-4C73-8852-FE766888271F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.03.15" sheetId="42" r:id="rId2"/>
-    <sheet name="2024.03.14" sheetId="41" r:id="rId3"/>
-    <sheet name="2024.03.13" sheetId="40" r:id="rId4"/>
-    <sheet name="2024.03.12" sheetId="39" r:id="rId5"/>
-    <sheet name="2024.03.11" sheetId="38" r:id="rId6"/>
-    <sheet name="2024.03.07" sheetId="37" r:id="rId7"/>
-    <sheet name="2024.03.06" sheetId="36" r:id="rId8"/>
-    <sheet name="2024.03.05" sheetId="35" r:id="rId9"/>
-    <sheet name="2024.02.29" sheetId="34" r:id="rId10"/>
-    <sheet name="2024.02.28" sheetId="33" r:id="rId11"/>
-    <sheet name="2024.02.27" sheetId="32" r:id="rId12"/>
+    <sheet name="2024.03.18" sheetId="43" r:id="rId2"/>
+    <sheet name="2024.03.15" sheetId="42" r:id="rId3"/>
+    <sheet name="2024.03.14" sheetId="41" r:id="rId4"/>
+    <sheet name="2024.03.13" sheetId="40" r:id="rId5"/>
+    <sheet name="2024.03.12" sheetId="39" r:id="rId6"/>
+    <sheet name="2024.03.11" sheetId="38" r:id="rId7"/>
+    <sheet name="2024.03.07" sheetId="37" r:id="rId8"/>
+    <sheet name="2024.03.06" sheetId="36" r:id="rId9"/>
+    <sheet name="2024.03.05" sheetId="35" r:id="rId10"/>
+    <sheet name="2024.02.29" sheetId="34" r:id="rId11"/>
+    <sheet name="2024.02.28" sheetId="33" r:id="rId12"/>
+    <sheet name="2024.02.27" sheetId="32" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="22">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +116,14 @@
   </si>
   <si>
     <t>선생님께 여쭤볼것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 MVC board DB 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 MVC member DB 연결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -324,6 +333,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -749,20 +770,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -774,17 +795,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -792,17 +813,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -810,17 +831,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -828,17 +849,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -846,17 +867,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -864,17 +885,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -882,17 +903,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -914,6 +935,195 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FA9474-E63D-4D2C-97E0-84F375B3C5D8}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DE9FE6-A145-4620-80E6-12BC615A383E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1102,7 +1312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B15C92E-9484-4ACD-8B61-739E1475E7F6}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1287,7 +1497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E76F57-19D6-41E4-AEBF-F01174A4B387}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1473,10 +1683,192 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFBE993-F5E6-4D4D-9248-5D3A52DDF9DA}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0956C01-E2C4-40B1-B2D9-3C4AD5615E6E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
@@ -1671,7 +2063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C77DD7-2C61-48F8-9364-33F93C1F0696}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1864,7 +2256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238DA81A-D956-47A7-AAD4-C1D35DEF664B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2057,7 +2449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05416A26-6033-4D7A-8914-D7DA628CCE3C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2250,7 +2642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EEC015-DF16-475A-A259-9FC95CB91A71}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2443,7 +2835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68D4942-BE5E-439E-A212-3B61CCE9CD5C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2632,7 +3024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EF298E-C04F-48C4-8D05-B4A530AD3F9B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2819,193 +3211,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FA9474-E63D-4D2C-97E0-84F375B3C5D8}">
-  <dimension ref="B2:O14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="38.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:15" ht="38.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,24 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D5DB4C-D886-4C73-8852-FE766888271F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C5F54D-5666-4285-AE89-6B55F0DAD266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.03.18" sheetId="43" r:id="rId2"/>
-    <sheet name="2024.03.15" sheetId="42" r:id="rId3"/>
-    <sheet name="2024.03.14" sheetId="41" r:id="rId4"/>
-    <sheet name="2024.03.13" sheetId="40" r:id="rId5"/>
-    <sheet name="2024.03.12" sheetId="39" r:id="rId6"/>
-    <sheet name="2024.03.11" sheetId="38" r:id="rId7"/>
-    <sheet name="2024.03.07" sheetId="37" r:id="rId8"/>
-    <sheet name="2024.03.06" sheetId="36" r:id="rId9"/>
-    <sheet name="2024.03.05" sheetId="35" r:id="rId10"/>
-    <sheet name="2024.02.29" sheetId="34" r:id="rId11"/>
-    <sheet name="2024.02.28" sheetId="33" r:id="rId12"/>
-    <sheet name="2024.02.27" sheetId="32" r:id="rId13"/>
+    <sheet name="2024.03.20" sheetId="45" r:id="rId2"/>
+    <sheet name="2024.03.19" sheetId="44" r:id="rId3"/>
+    <sheet name="2024.03.18" sheetId="43" r:id="rId4"/>
+    <sheet name="2024.03.15" sheetId="42" r:id="rId5"/>
+    <sheet name="2024.03.14" sheetId="41" r:id="rId6"/>
+    <sheet name="2024.03.13" sheetId="40" r:id="rId7"/>
+    <sheet name="2024.03.12" sheetId="39" r:id="rId8"/>
+    <sheet name="2024.03.11" sheetId="38" r:id="rId9"/>
+    <sheet name="2024.03.07" sheetId="37" r:id="rId10"/>
+    <sheet name="2024.03.06" sheetId="36" r:id="rId11"/>
+    <sheet name="2024.03.05" sheetId="35" r:id="rId12"/>
+    <sheet name="2024.02.29" sheetId="34" r:id="rId13"/>
+    <sheet name="2024.02.28" sheetId="33" r:id="rId14"/>
+    <sheet name="2024.02.27" sheetId="32" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="24">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +126,14 @@
   </si>
   <si>
     <t>스프링 MVC member DB 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스프링 MVC board 로그인 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 MVC board 회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -299,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,6 +343,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -770,20 +792,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -795,17 +817,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -813,17 +835,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -831,17 +853,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -849,17 +871,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -867,17 +889,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -885,17 +907,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -903,17 +925,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -935,6 +957,384 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68D4942-BE5E-439E-A212-3B61CCE9CD5C}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EF298E-C04F-48C4-8D05-B4A530AD3F9B}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FA9474-E63D-4D2C-97E0-84F375B3C5D8}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1123,7 +1523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DE9FE6-A145-4620-80E6-12BC615A383E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1312,7 +1712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B15C92E-9484-4ACD-8B61-739E1475E7F6}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1497,7 +1897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E76F57-19D6-41E4-AEBF-F01174A4B387}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1683,10 +2083,374 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5802F21C-221F-45EE-B72F-8966571D5563}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACD257F-6070-4E93-8984-60D0EBDDDC94}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFBE993-F5E6-4D4D-9248-5D3A52DDF9DA}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -1864,7 +2628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0956C01-E2C4-40B1-B2D9-3C4AD5615E6E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2063,7 +2827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C77DD7-2C61-48F8-9364-33F93C1F0696}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2256,7 +3020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238DA81A-D956-47A7-AAD4-C1D35DEF664B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2449,7 +3213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05416A26-6033-4D7A-8914-D7DA628CCE3C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2642,7 +3406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EEC015-DF16-475A-A259-9FC95CB91A71}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2833,382 +3597,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68D4942-BE5E-439E-A212-3B61CCE9CD5C}">
-  <dimension ref="B2:O14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="38.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:15" ht="38.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EF298E-C04F-48C4-8D05-B4A530AD3F9B}">
-  <dimension ref="B2:O14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="38.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:15" ht="38.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C5F54D-5666-4285-AE89-6B55F0DAD266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D209A9AA-D661-41C6-B988-B178EBE875D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.03.20" sheetId="45" r:id="rId2"/>
-    <sheet name="2024.03.19" sheetId="44" r:id="rId3"/>
-    <sheet name="2024.03.18" sheetId="43" r:id="rId4"/>
-    <sheet name="2024.03.15" sheetId="42" r:id="rId5"/>
-    <sheet name="2024.03.14" sheetId="41" r:id="rId6"/>
-    <sheet name="2024.03.13" sheetId="40" r:id="rId7"/>
-    <sheet name="2024.03.12" sheetId="39" r:id="rId8"/>
-    <sheet name="2024.03.11" sheetId="38" r:id="rId9"/>
-    <sheet name="2024.03.07" sheetId="37" r:id="rId10"/>
-    <sheet name="2024.03.06" sheetId="36" r:id="rId11"/>
-    <sheet name="2024.03.05" sheetId="35" r:id="rId12"/>
-    <sheet name="2024.02.29" sheetId="34" r:id="rId13"/>
-    <sheet name="2024.02.28" sheetId="33" r:id="rId14"/>
-    <sheet name="2024.02.27" sheetId="32" r:id="rId15"/>
+    <sheet name="2024.03.21" sheetId="46" r:id="rId2"/>
+    <sheet name="2024.03.20" sheetId="45" r:id="rId3"/>
+    <sheet name="2024.03.19" sheetId="44" r:id="rId4"/>
+    <sheet name="2024.03.18" sheetId="43" r:id="rId5"/>
+    <sheet name="2024.03.15" sheetId="42" r:id="rId6"/>
+    <sheet name="2024.03.14" sheetId="41" r:id="rId7"/>
+    <sheet name="2024.03.13" sheetId="40" r:id="rId8"/>
+    <sheet name="2024.03.12" sheetId="39" r:id="rId9"/>
+    <sheet name="2024.03.11" sheetId="38" r:id="rId10"/>
+    <sheet name="2024.03.07" sheetId="37" r:id="rId11"/>
+    <sheet name="2024.03.06" sheetId="36" r:id="rId12"/>
+    <sheet name="2024.03.05" sheetId="35" r:id="rId13"/>
+    <sheet name="2024.02.29" sheetId="34" r:id="rId14"/>
+    <sheet name="2024.02.28" sheetId="33" r:id="rId15"/>
+    <sheet name="2024.02.27" sheetId="32" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="25">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +135,10 @@
   </si>
   <si>
     <t>스프링 MVC board 회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구분석서 초안</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -309,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -343,6 +348,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -792,20 +809,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -817,17 +834,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -835,17 +852,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -853,17 +870,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -871,17 +888,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -889,17 +906,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -907,17 +924,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -925,17 +942,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -957,6 +974,199 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EEC015-DF16-475A-A259-9FC95CB91A71}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68D4942-BE5E-439E-A212-3B61CCE9CD5C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1145,7 +1355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EF298E-C04F-48C4-8D05-B4A530AD3F9B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1334,7 +1544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FA9474-E63D-4D2C-97E0-84F375B3C5D8}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1523,7 +1733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DE9FE6-A145-4620-80E6-12BC615A383E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1712,7 +1922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B15C92E-9484-4ACD-8B61-739E1475E7F6}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1897,7 +2107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E76F57-19D6-41E4-AEBF-F01174A4B387}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2083,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5802F21C-221F-45EE-B72F-8966571D5563}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361A78FC-BDFE-4284-88EF-3C72B79D29E1}">
   <dimension ref="B2:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2097,6 +2307,184 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
+      <c r="B2" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5802F21C-221F-45EE-B72F-8966571D5563}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
       <c r="B2" s="59" t="s">
         <v>0</v>
       </c>
@@ -2264,7 +2652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACD257F-6070-4E93-8984-60D0EBDDDC94}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2446,7 +2834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFBE993-F5E6-4D4D-9248-5D3A52DDF9DA}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2628,7 +3016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0956C01-E2C4-40B1-B2D9-3C4AD5615E6E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2827,7 +3215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C77DD7-2C61-48F8-9364-33F93C1F0696}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3020,7 +3408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238DA81A-D956-47A7-AAD4-C1D35DEF664B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3213,7 +3601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05416A26-6033-4D7A-8914-D7DA628CCE3C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3404,197 +3792,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EEC015-DF16-475A-A259-9FC95CB91A71}">
-  <dimension ref="B2:O14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="38.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:15" ht="38.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,27 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D209A9AA-D661-41C6-B988-B178EBE875D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743AB7F4-CA32-44C2-9631-B9D1D260A4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.03.21" sheetId="46" r:id="rId2"/>
-    <sheet name="2024.03.20" sheetId="45" r:id="rId3"/>
-    <sheet name="2024.03.19" sheetId="44" r:id="rId4"/>
-    <sheet name="2024.03.18" sheetId="43" r:id="rId5"/>
-    <sheet name="2024.03.15" sheetId="42" r:id="rId6"/>
-    <sheet name="2024.03.14" sheetId="41" r:id="rId7"/>
-    <sheet name="2024.03.13" sheetId="40" r:id="rId8"/>
-    <sheet name="2024.03.12" sheetId="39" r:id="rId9"/>
-    <sheet name="2024.03.11" sheetId="38" r:id="rId10"/>
-    <sheet name="2024.03.07" sheetId="37" r:id="rId11"/>
-    <sheet name="2024.03.06" sheetId="36" r:id="rId12"/>
-    <sheet name="2024.03.05" sheetId="35" r:id="rId13"/>
-    <sheet name="2024.02.29" sheetId="34" r:id="rId14"/>
-    <sheet name="2024.02.28" sheetId="33" r:id="rId15"/>
-    <sheet name="2024.02.27" sheetId="32" r:id="rId16"/>
+    <sheet name="2024.03.25" sheetId="48" r:id="rId2"/>
+    <sheet name="2024.03.22" sheetId="47" r:id="rId3"/>
+    <sheet name="2024.03.21" sheetId="46" r:id="rId4"/>
+    <sheet name="2024.03.20" sheetId="45" r:id="rId5"/>
+    <sheet name="2024.03.19" sheetId="44" r:id="rId6"/>
+    <sheet name="2024.03.18" sheetId="43" r:id="rId7"/>
+    <sheet name="2024.03.15" sheetId="42" r:id="rId8"/>
+    <sheet name="2024.03.14" sheetId="41" r:id="rId9"/>
+    <sheet name="2024.03.13" sheetId="40" r:id="rId10"/>
+    <sheet name="2024.03.12" sheetId="39" r:id="rId11"/>
+    <sheet name="2024.03.11" sheetId="38" r:id="rId12"/>
+    <sheet name="2024.03.07" sheetId="37" r:id="rId13"/>
+    <sheet name="2024.03.06" sheetId="36" r:id="rId14"/>
+    <sheet name="2024.03.05" sheetId="35" r:id="rId15"/>
+    <sheet name="2024.02.29" sheetId="34" r:id="rId16"/>
+    <sheet name="2024.02.28" sheetId="33" r:id="rId17"/>
+    <sheet name="2024.02.27" sheetId="32" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="27">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +141,14 @@
   </si>
   <si>
     <t>요구분석서 초안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt초안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt 디테일작업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -314,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -348,6 +358,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -809,20 +831,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -834,17 +856,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -852,17 +874,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -870,17 +892,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -888,17 +910,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -906,17 +928,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -924,17 +946,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -942,17 +964,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -974,6 +996,392 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238DA81A-D956-47A7-AAD4-C1D35DEF664B}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11:P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05416A26-6033-4D7A-8914-D7DA628CCE3C}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EEC015-DF16-475A-A259-9FC95CB91A71}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1166,7 +1574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68D4942-BE5E-439E-A212-3B61CCE9CD5C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1355,7 +1763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EF298E-C04F-48C4-8D05-B4A530AD3F9B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1544,7 +1952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FA9474-E63D-4D2C-97E0-84F375B3C5D8}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1733,7 +2141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DE9FE6-A145-4620-80E6-12BC615A383E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1922,7 +2330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B15C92E-9484-4ACD-8B61-739E1475E7F6}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2107,7 +2515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E76F57-19D6-41E4-AEBF-F01174A4B387}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2293,10 +2701,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A09DD1F-E08C-4E53-93CF-A0F5A2D16AEC}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="65"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC1D865-F92C-4C8E-B962-F32DDD130B4D}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L19:L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="65"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361A78FC-BDFE-4284-88EF-3C72B79D29E1}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -2470,7 +3234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5802F21C-221F-45EE-B72F-8966571D5563}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2652,7 +3416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACD257F-6070-4E93-8984-60D0EBDDDC94}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2834,7 +3598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFBE993-F5E6-4D4D-9248-5D3A52DDF9DA}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3016,7 +3780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0956C01-E2C4-40B1-B2D9-3C4AD5615E6E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3215,7 +3979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C77DD7-2C61-48F8-9364-33F93C1F0696}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3406,390 +4170,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238DA81A-D956-47A7-AAD4-C1D35DEF664B}">
-  <dimension ref="B2:O14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11:P12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="38.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:15" ht="38.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05416A26-6033-4D7A-8914-D7DA628CCE3C}">
-  <dimension ref="B2:O14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="38.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:15" ht="38.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,29 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743AB7F4-CA32-44C2-9631-B9D1D260A4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41F8496-A302-4B8A-87AA-7FA19138A9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.03.25" sheetId="48" r:id="rId2"/>
-    <sheet name="2024.03.22" sheetId="47" r:id="rId3"/>
-    <sheet name="2024.03.21" sheetId="46" r:id="rId4"/>
-    <sheet name="2024.03.20" sheetId="45" r:id="rId5"/>
-    <sheet name="2024.03.19" sheetId="44" r:id="rId6"/>
-    <sheet name="2024.03.18" sheetId="43" r:id="rId7"/>
-    <sheet name="2024.03.15" sheetId="42" r:id="rId8"/>
-    <sheet name="2024.03.14" sheetId="41" r:id="rId9"/>
-    <sheet name="2024.03.13" sheetId="40" r:id="rId10"/>
-    <sheet name="2024.03.12" sheetId="39" r:id="rId11"/>
-    <sheet name="2024.03.11" sheetId="38" r:id="rId12"/>
-    <sheet name="2024.03.07" sheetId="37" r:id="rId13"/>
-    <sheet name="2024.03.06" sheetId="36" r:id="rId14"/>
-    <sheet name="2024.03.05" sheetId="35" r:id="rId15"/>
-    <sheet name="2024.02.29" sheetId="34" r:id="rId16"/>
-    <sheet name="2024.02.28" sheetId="33" r:id="rId17"/>
-    <sheet name="2024.02.27" sheetId="32" r:id="rId18"/>
+    <sheet name="2024.03.27" sheetId="50" r:id="rId2"/>
+    <sheet name="2024.03.26" sheetId="49" r:id="rId3"/>
+    <sheet name="2024.03.25" sheetId="48" r:id="rId4"/>
+    <sheet name="2024.03.22" sheetId="47" r:id="rId5"/>
+    <sheet name="2024.03.21" sheetId="46" r:id="rId6"/>
+    <sheet name="2024.03.20" sheetId="45" r:id="rId7"/>
+    <sheet name="2024.03.19" sheetId="44" r:id="rId8"/>
+    <sheet name="2024.03.18" sheetId="43" r:id="rId9"/>
+    <sheet name="2024.03.15" sheetId="42" r:id="rId10"/>
+    <sheet name="2024.03.14" sheetId="41" r:id="rId11"/>
+    <sheet name="2024.03.13" sheetId="40" r:id="rId12"/>
+    <sheet name="2024.03.12" sheetId="39" r:id="rId13"/>
+    <sheet name="2024.03.11" sheetId="38" r:id="rId14"/>
+    <sheet name="2024.03.07" sheetId="37" r:id="rId15"/>
+    <sheet name="2024.03.06" sheetId="36" r:id="rId16"/>
+    <sheet name="2024.03.05" sheetId="35" r:id="rId17"/>
+    <sheet name="2024.02.29" sheetId="34" r:id="rId18"/>
+    <sheet name="2024.02.28" sheetId="33" r:id="rId19"/>
+    <sheet name="2024.02.27" sheetId="32" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="29">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +151,14 @@
   </si>
   <si>
     <t>ppt 디테일작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt 수정사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mvc 게시판 게시글 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -324,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -358,6 +368,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -831,20 +853,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -856,17 +878,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -874,17 +896,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -892,17 +914,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -910,17 +932,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -928,17 +950,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -946,17 +968,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -964,17 +986,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -996,6 +1018,398 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0956C01-E2C4-40B1-B2D9-3C4AD5615E6E}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C77DD7-2C61-48F8-9364-33F93C1F0696}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238DA81A-D956-47A7-AAD4-C1D35DEF664B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1188,7 +1602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05416A26-6033-4D7A-8914-D7DA628CCE3C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1381,7 +1795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EEC015-DF16-475A-A259-9FC95CB91A71}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1574,7 +1988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68D4942-BE5E-439E-A212-3B61CCE9CD5C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1763,7 +2177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EF298E-C04F-48C4-8D05-B4A530AD3F9B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1952,7 +2366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FA9474-E63D-4D2C-97E0-84F375B3C5D8}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2141,7 +2555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DE9FE6-A145-4620-80E6-12BC615A383E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2330,7 +2744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B15C92E-9484-4ACD-8B61-739E1475E7F6}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2515,7 +2929,185 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA03D491-2F07-474A-A642-13A09594DF0C}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E76F57-19D6-41E4-AEBF-F01174A4B387}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2700,11 +3292,189 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2861677-0F32-4CB5-8FB8-96F87084626B}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A09DD1F-E08C-4E53-93CF-A0F5A2D16AEC}">
   <dimension ref="B2:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -2878,7 +3648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC1D865-F92C-4C8E-B962-F32DDD130B4D}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3056,7 +3826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361A78FC-BDFE-4284-88EF-3C72B79D29E1}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3234,7 +4004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5802F21C-221F-45EE-B72F-8966571D5563}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3416,7 +4186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACD257F-6070-4E93-8984-60D0EBDDDC94}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3598,7 +4368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFBE993-F5E6-4D4D-9248-5D3A52DDF9DA}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3778,396 +4548,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0956C01-E2C4-40B1-B2D9-3C4AD5615E6E}">
-  <dimension ref="B2:O14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="38.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:15" ht="38.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C77DD7-2C61-48F8-9364-33F93C1F0696}">
-  <dimension ref="B2:O14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="38.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:15" ht="38.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,31 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41F8496-A302-4B8A-87AA-7FA19138A9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC784FA-DBAE-47ED-A8B6-D52696904BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.03.27" sheetId="50" r:id="rId2"/>
-    <sheet name="2024.03.26" sheetId="49" r:id="rId3"/>
-    <sheet name="2024.03.25" sheetId="48" r:id="rId4"/>
-    <sheet name="2024.03.22" sheetId="47" r:id="rId5"/>
-    <sheet name="2024.03.21" sheetId="46" r:id="rId6"/>
-    <sheet name="2024.03.20" sheetId="45" r:id="rId7"/>
-    <sheet name="2024.03.19" sheetId="44" r:id="rId8"/>
-    <sheet name="2024.03.18" sheetId="43" r:id="rId9"/>
-    <sheet name="2024.03.15" sheetId="42" r:id="rId10"/>
-    <sheet name="2024.03.14" sheetId="41" r:id="rId11"/>
-    <sheet name="2024.03.13" sheetId="40" r:id="rId12"/>
-    <sheet name="2024.03.12" sheetId="39" r:id="rId13"/>
-    <sheet name="2024.03.11" sheetId="38" r:id="rId14"/>
-    <sheet name="2024.03.07" sheetId="37" r:id="rId15"/>
-    <sheet name="2024.03.06" sheetId="36" r:id="rId16"/>
-    <sheet name="2024.03.05" sheetId="35" r:id="rId17"/>
-    <sheet name="2024.02.29" sheetId="34" r:id="rId18"/>
-    <sheet name="2024.02.28" sheetId="33" r:id="rId19"/>
-    <sheet name="2024.02.27" sheetId="32" r:id="rId20"/>
+    <sheet name="2024.03.28" sheetId="51" r:id="rId2"/>
+    <sheet name="2024.03.27" sheetId="50" r:id="rId3"/>
+    <sheet name="2024.03.26" sheetId="49" r:id="rId4"/>
+    <sheet name="2024.03.25" sheetId="48" r:id="rId5"/>
+    <sheet name="2024.03.22" sheetId="47" r:id="rId6"/>
+    <sheet name="2024.03.21" sheetId="46" r:id="rId7"/>
+    <sheet name="2024.03.20" sheetId="45" r:id="rId8"/>
+    <sheet name="2024.03.19" sheetId="44" r:id="rId9"/>
+    <sheet name="2024.03.18" sheetId="43" r:id="rId10"/>
+    <sheet name="2024.03.15" sheetId="42" r:id="rId11"/>
+    <sheet name="2024.03.14" sheetId="41" r:id="rId12"/>
+    <sheet name="2024.03.13" sheetId="40" r:id="rId13"/>
+    <sheet name="2024.03.12" sheetId="39" r:id="rId14"/>
+    <sheet name="2024.03.11" sheetId="38" r:id="rId15"/>
+    <sheet name="2024.03.07" sheetId="37" r:id="rId16"/>
+    <sheet name="2024.03.06" sheetId="36" r:id="rId17"/>
+    <sheet name="2024.03.05" sheetId="35" r:id="rId18"/>
+    <sheet name="2024.02.29" sheetId="34" r:id="rId19"/>
+    <sheet name="2024.02.28" sheetId="33" r:id="rId20"/>
+    <sheet name="2024.02.27" sheetId="32" r:id="rId21"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="31">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +160,14 @@
   </si>
   <si>
     <t>mvc 게시판 게시글 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mvc 게시판 게시글 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간발표 ppt 진행상황 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -334,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -368,6 +377,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -853,20 +874,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -878,17 +899,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -896,17 +917,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -914,17 +935,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -932,17 +953,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -950,17 +971,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -968,17 +989,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -986,17 +1007,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1018,6 +1039,188 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFBE993-F5E6-4D4D-9248-5D3A52DDF9DA}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0956C01-E2C4-40B1-B2D9-3C4AD5615E6E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1216,7 +1419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C77DD7-2C61-48F8-9364-33F93C1F0696}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1409,7 +1612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238DA81A-D956-47A7-AAD4-C1D35DEF664B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1602,7 +1805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05416A26-6033-4D7A-8914-D7DA628CCE3C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1795,7 +1998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EEC015-DF16-475A-A259-9FC95CB91A71}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1988,7 +2191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68D4942-BE5E-439E-A212-3B61CCE9CD5C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2177,7 +2380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EF298E-C04F-48C4-8D05-B4A530AD3F9B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2366,7 +2569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FA9474-E63D-4D2C-97E0-84F375B3C5D8}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2555,7 +2758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DE9FE6-A145-4620-80E6-12BC615A383E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2744,7 +2947,185 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2BD29B-F57B-41A8-B88C-8E8627E5D889}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="73"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B15C92E-9484-4ACD-8B61-739E1475E7F6}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2929,185 +3310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA03D491-2F07-474A-A642-13A09594DF0C}">
-  <dimension ref="B2:O14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="69"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="38.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:15" ht="38.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E76F57-19D6-41E4-AEBF-F01174A4B387}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3293,6 +3496,184 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA03D491-2F07-474A-A642-13A09594DF0C}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2861677-0F32-4CB5-8FB8-96F87084626B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3470,7 +3851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A09DD1F-E08C-4E53-93CF-A0F5A2D16AEC}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3648,7 +4029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC1D865-F92C-4C8E-B962-F32DDD130B4D}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3826,7 +4207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361A78FC-BDFE-4284-88EF-3C72B79D29E1}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4004,7 +4385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5802F21C-221F-45EE-B72F-8966571D5563}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4186,7 +4567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACD257F-6070-4E93-8984-60D0EBDDDC94}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4366,186 +4747,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFBE993-F5E6-4D4D-9248-5D3A52DDF9DA}">
-  <dimension ref="B2:O14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="38.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:15" ht="38.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,32 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC784FA-DBAE-47ED-A8B6-D52696904BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24149307-2C0C-4B59-84DF-D88E16749864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.03.28" sheetId="51" r:id="rId2"/>
-    <sheet name="2024.03.27" sheetId="50" r:id="rId3"/>
-    <sheet name="2024.03.26" sheetId="49" r:id="rId4"/>
-    <sheet name="2024.03.25" sheetId="48" r:id="rId5"/>
-    <sheet name="2024.03.22" sheetId="47" r:id="rId6"/>
-    <sheet name="2024.03.21" sheetId="46" r:id="rId7"/>
-    <sheet name="2024.03.20" sheetId="45" r:id="rId8"/>
-    <sheet name="2024.03.19" sheetId="44" r:id="rId9"/>
-    <sheet name="2024.03.18" sheetId="43" r:id="rId10"/>
-    <sheet name="2024.03.15" sheetId="42" r:id="rId11"/>
-    <sheet name="2024.03.14" sheetId="41" r:id="rId12"/>
-    <sheet name="2024.03.13" sheetId="40" r:id="rId13"/>
-    <sheet name="2024.03.12" sheetId="39" r:id="rId14"/>
-    <sheet name="2024.03.11" sheetId="38" r:id="rId15"/>
-    <sheet name="2024.03.07" sheetId="37" r:id="rId16"/>
-    <sheet name="2024.03.06" sheetId="36" r:id="rId17"/>
-    <sheet name="2024.03.05" sheetId="35" r:id="rId18"/>
-    <sheet name="2024.02.29" sheetId="34" r:id="rId19"/>
-    <sheet name="2024.02.28" sheetId="33" r:id="rId20"/>
-    <sheet name="2024.02.27" sheetId="32" r:id="rId21"/>
+    <sheet name="2024.04.01" sheetId="53" r:id="rId2"/>
+    <sheet name="2024.03.29" sheetId="52" r:id="rId3"/>
+    <sheet name="2024.03.28" sheetId="51" r:id="rId4"/>
+    <sheet name="2024.03.27" sheetId="50" r:id="rId5"/>
+    <sheet name="2024.03.26" sheetId="49" r:id="rId6"/>
+    <sheet name="2024.03.25" sheetId="48" r:id="rId7"/>
+    <sheet name="2024.03.22" sheetId="47" r:id="rId8"/>
+    <sheet name="2024.03.21" sheetId="46" r:id="rId9"/>
+    <sheet name="2024.03.20" sheetId="45" r:id="rId10"/>
+    <sheet name="2024.03.19" sheetId="44" r:id="rId11"/>
+    <sheet name="2024.03.18" sheetId="43" r:id="rId12"/>
+    <sheet name="2024.03.15" sheetId="42" r:id="rId13"/>
+    <sheet name="2024.03.14" sheetId="41" r:id="rId14"/>
+    <sheet name="2024.03.13" sheetId="40" r:id="rId15"/>
+    <sheet name="2024.03.12" sheetId="39" r:id="rId16"/>
+    <sheet name="2024.03.11" sheetId="38" r:id="rId17"/>
+    <sheet name="2024.03.07" sheetId="37" r:id="rId18"/>
+    <sheet name="2024.03.06" sheetId="36" r:id="rId19"/>
+    <sheet name="2024.03.05" sheetId="35" r:id="rId20"/>
+    <sheet name="2024.02.29" sheetId="34" r:id="rId21"/>
+    <sheet name="2024.02.28" sheetId="33" r:id="rId22"/>
+    <sheet name="2024.02.27" sheetId="32" r:id="rId23"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="33">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +170,14 @@
   </si>
   <si>
     <t>중간발표 ppt 진행상황 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mvc 게시판 게시글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 만들기 개발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -343,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -377,6 +387,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -874,20 +896,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -899,17 +921,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -917,17 +939,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -935,17 +957,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -953,17 +975,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -971,17 +993,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -989,17 +1011,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1007,17 +1029,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1039,6 +1061,370 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5802F21C-221F-45EE-B72F-8966571D5563}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACD257F-6070-4E93-8984-60D0EBDDDC94}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFBE993-F5E6-4D4D-9248-5D3A52DDF9DA}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1220,7 +1606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0956C01-E2C4-40B1-B2D9-3C4AD5615E6E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1419,7 +1805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C77DD7-2C61-48F8-9364-33F93C1F0696}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1612,7 +1998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238DA81A-D956-47A7-AAD4-C1D35DEF664B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1805,7 +2191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05416A26-6033-4D7A-8914-D7DA628CCE3C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1998,7 +2384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EEC015-DF16-475A-A259-9FC95CB91A71}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2191,7 +2577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68D4942-BE5E-439E-A212-3B61CCE9CD5C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2380,7 +2766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EF298E-C04F-48C4-8D05-B4A530AD3F9B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2569,7 +2955,185 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1847E7B-958C-4941-B67C-9F13D75475AB}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="77"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FA9474-E63D-4D2C-97E0-84F375B3C5D8}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2758,7 +3322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DE9FE6-A145-4620-80E6-12BC615A383E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2947,185 +3511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2BD29B-F57B-41A8-B88C-8E8627E5D889}">
-  <dimension ref="B2:O14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="73"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="38.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:15" ht="38.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B15C92E-9484-4ACD-8B61-739E1475E7F6}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3310,7 +3696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E76F57-19D6-41E4-AEBF-F01174A4B387}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3496,6 +3882,358 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD61030F-16FF-4AD5-9C7C-119D31645854}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="77"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2BD29B-F57B-41A8-B88C-8E8627E5D889}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="73"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA03D491-2F07-474A-A642-13A09594DF0C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3673,7 +4411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2861677-0F32-4CB5-8FB8-96F87084626B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3851,7 +4589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A09DD1F-E08C-4E53-93CF-A0F5A2D16AEC}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4029,7 +4767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC1D865-F92C-4C8E-B962-F32DDD130B4D}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4207,7 +4945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361A78FC-BDFE-4284-88EF-3C72B79D29E1}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4383,368 +5121,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5802F21C-221F-45EE-B72F-8966571D5563}">
-  <dimension ref="B2:O14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="38.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:15" ht="38.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACD257F-6070-4E93-8984-60D0EBDDDC94}">
-  <dimension ref="B2:O14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="38.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:15" ht="38.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,34 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24149307-2C0C-4B59-84DF-D88E16749864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEECF31D-FCF3-4233-A3A2-CD9AA9C8997E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.04.01" sheetId="53" r:id="rId2"/>
-    <sheet name="2024.03.29" sheetId="52" r:id="rId3"/>
-    <sheet name="2024.03.28" sheetId="51" r:id="rId4"/>
-    <sheet name="2024.03.27" sheetId="50" r:id="rId5"/>
-    <sheet name="2024.03.26" sheetId="49" r:id="rId6"/>
-    <sheet name="2024.03.25" sheetId="48" r:id="rId7"/>
-    <sheet name="2024.03.22" sheetId="47" r:id="rId8"/>
-    <sheet name="2024.03.21" sheetId="46" r:id="rId9"/>
-    <sheet name="2024.03.20" sheetId="45" r:id="rId10"/>
-    <sheet name="2024.03.19" sheetId="44" r:id="rId11"/>
-    <sheet name="2024.03.18" sheetId="43" r:id="rId12"/>
-    <sheet name="2024.03.15" sheetId="42" r:id="rId13"/>
-    <sheet name="2024.03.14" sheetId="41" r:id="rId14"/>
-    <sheet name="2024.03.13" sheetId="40" r:id="rId15"/>
-    <sheet name="2024.03.12" sheetId="39" r:id="rId16"/>
-    <sheet name="2024.03.11" sheetId="38" r:id="rId17"/>
-    <sheet name="2024.03.07" sheetId="37" r:id="rId18"/>
-    <sheet name="2024.03.06" sheetId="36" r:id="rId19"/>
-    <sheet name="2024.03.05" sheetId="35" r:id="rId20"/>
-    <sheet name="2024.02.29" sheetId="34" r:id="rId21"/>
-    <sheet name="2024.02.28" sheetId="33" r:id="rId22"/>
-    <sheet name="2024.02.27" sheetId="32" r:id="rId23"/>
+    <sheet name="2024.04.03" sheetId="55" r:id="rId2"/>
+    <sheet name="2024.04.02" sheetId="54" r:id="rId3"/>
+    <sheet name="2024.04.01" sheetId="53" r:id="rId4"/>
+    <sheet name="2024.03.29" sheetId="52" r:id="rId5"/>
+    <sheet name="2024.03.28" sheetId="51" r:id="rId6"/>
+    <sheet name="2024.03.27" sheetId="50" r:id="rId7"/>
+    <sheet name="2024.03.26" sheetId="49" r:id="rId8"/>
+    <sheet name="2024.03.25" sheetId="48" r:id="rId9"/>
+    <sheet name="2024.03.22" sheetId="47" r:id="rId10"/>
+    <sheet name="2024.03.21" sheetId="46" r:id="rId11"/>
+    <sheet name="2024.03.20" sheetId="45" r:id="rId12"/>
+    <sheet name="2024.03.19" sheetId="44" r:id="rId13"/>
+    <sheet name="2024.03.18" sheetId="43" r:id="rId14"/>
+    <sheet name="2024.03.15" sheetId="42" r:id="rId15"/>
+    <sheet name="2024.03.14" sheetId="41" r:id="rId16"/>
+    <sheet name="2024.03.13" sheetId="40" r:id="rId17"/>
+    <sheet name="2024.03.12" sheetId="39" r:id="rId18"/>
+    <sheet name="2024.03.11" sheetId="38" r:id="rId19"/>
+    <sheet name="2024.03.07" sheetId="37" r:id="rId20"/>
+    <sheet name="2024.03.06" sheetId="36" r:id="rId21"/>
+    <sheet name="2024.03.05" sheetId="35" r:id="rId22"/>
+    <sheet name="2024.02.29" sheetId="34" r:id="rId23"/>
+    <sheet name="2024.02.28" sheetId="33" r:id="rId24"/>
+    <sheet name="2024.02.27" sheetId="32" r:id="rId25"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="41">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +180,38 @@
   </si>
   <si>
     <t>게시판 만들기 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 목록 보기 화면 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목차 등 디테일작업 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 목록 보기 화면 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 상세 보기 화면 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글  쓰기 화면 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 수정 화면 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작업 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에디터 작업 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -353,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -387,6 +421,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -896,20 +942,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -921,17 +967,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -939,17 +985,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -957,17 +1003,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -975,17 +1021,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -993,17 +1039,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1011,17 +1057,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1029,17 +1075,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1061,6 +1107,362 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC1D865-F92C-4C8E-B962-F32DDD130B4D}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L19:L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="65"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361A78FC-BDFE-4284-88EF-3C72B79D29E1}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5802F21C-221F-45EE-B72F-8966571D5563}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1242,7 +1644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACD257F-6070-4E93-8984-60D0EBDDDC94}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1424,7 +1826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFBE993-F5E6-4D4D-9248-5D3A52DDF9DA}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1606,7 +2008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0956C01-E2C4-40B1-B2D9-3C4AD5615E6E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1805,7 +2207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C77DD7-2C61-48F8-9364-33F93C1F0696}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1998,7 +2400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238DA81A-D956-47A7-AAD4-C1D35DEF664B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2191,7 +2593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05416A26-6033-4D7A-8914-D7DA628CCE3C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2384,7 +2786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EEC015-DF16-475A-A259-9FC95CB91A71}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2577,7 +2979,202 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE412CCA-23AB-4016-8657-1C3BDF51CB87}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O14:O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68D4942-BE5E-439E-A212-3B61CCE9CD5C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2766,7 +3363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EF298E-C04F-48C4-8D05-B4A530AD3F9B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2955,185 +3552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1847E7B-958C-4941-B67C-9F13D75475AB}">
-  <dimension ref="B2:O14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="77"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="38.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:15" ht="38.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FA9474-E63D-4D2C-97E0-84F375B3C5D8}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3322,7 +3741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DE9FE6-A145-4620-80E6-12BC615A383E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3511,7 +3930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B15C92E-9484-4ACD-8B61-739E1475E7F6}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3696,7 +4115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E76F57-19D6-41E4-AEBF-F01174A4B387}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3882,6 +4301,358 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE876288-38B0-47AE-B985-A3C93114CAFD}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="81"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1847E7B-958C-4941-B67C-9F13D75475AB}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="77"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD61030F-16FF-4AD5-9C7C-119D31645854}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4055,7 +4826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2BD29B-F57B-41A8-B88C-8E8627E5D889}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4233,7 +5004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA03D491-2F07-474A-A642-13A09594DF0C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4411,7 +5182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2861677-0F32-4CB5-8FB8-96F87084626B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4589,7 +5360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A09DD1F-E08C-4E53-93CF-A0F5A2D16AEC}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4765,360 +5536,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC1D865-F92C-4C8E-B962-F32DDD130B4D}">
-  <dimension ref="B2:O14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L19:L20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="65"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="38.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:15" ht="38.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361A78FC-BDFE-4284-88EF-3C72B79D29E1}">
-  <dimension ref="B2:O14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="61"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="38.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:15" ht="38.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,36 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEECF31D-FCF3-4233-A3A2-CD9AA9C8997E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDDEB4B-1354-466E-A85F-F2EC8EF0FB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.04.03" sheetId="55" r:id="rId2"/>
-    <sheet name="2024.04.02" sheetId="54" r:id="rId3"/>
-    <sheet name="2024.04.01" sheetId="53" r:id="rId4"/>
-    <sheet name="2024.03.29" sheetId="52" r:id="rId5"/>
-    <sheet name="2024.03.28" sheetId="51" r:id="rId6"/>
-    <sheet name="2024.03.27" sheetId="50" r:id="rId7"/>
-    <sheet name="2024.03.26" sheetId="49" r:id="rId8"/>
-    <sheet name="2024.03.25" sheetId="48" r:id="rId9"/>
-    <sheet name="2024.03.22" sheetId="47" r:id="rId10"/>
-    <sheet name="2024.03.21" sheetId="46" r:id="rId11"/>
-    <sheet name="2024.03.20" sheetId="45" r:id="rId12"/>
-    <sheet name="2024.03.19" sheetId="44" r:id="rId13"/>
-    <sheet name="2024.03.18" sheetId="43" r:id="rId14"/>
-    <sheet name="2024.03.15" sheetId="42" r:id="rId15"/>
-    <sheet name="2024.03.14" sheetId="41" r:id="rId16"/>
-    <sheet name="2024.03.13" sheetId="40" r:id="rId17"/>
-    <sheet name="2024.03.12" sheetId="39" r:id="rId18"/>
-    <sheet name="2024.03.11" sheetId="38" r:id="rId19"/>
-    <sheet name="2024.03.07" sheetId="37" r:id="rId20"/>
-    <sheet name="2024.03.06" sheetId="36" r:id="rId21"/>
-    <sheet name="2024.03.05" sheetId="35" r:id="rId22"/>
-    <sheet name="2024.02.29" sheetId="34" r:id="rId23"/>
-    <sheet name="2024.02.28" sheetId="33" r:id="rId24"/>
-    <sheet name="2024.02.27" sheetId="32" r:id="rId25"/>
+    <sheet name="2024.04.05" sheetId="56" r:id="rId2"/>
+    <sheet name="2024.04.03" sheetId="55" r:id="rId3"/>
+    <sheet name="2024.04.02" sheetId="54" r:id="rId4"/>
+    <sheet name="2024.04.01" sheetId="53" r:id="rId5"/>
+    <sheet name="2024.03.29" sheetId="52" r:id="rId6"/>
+    <sheet name="2024.03.28" sheetId="51" r:id="rId7"/>
+    <sheet name="2024.03.27" sheetId="50" r:id="rId8"/>
+    <sheet name="2024.03.26" sheetId="49" r:id="rId9"/>
+    <sheet name="2024.03.25" sheetId="48" r:id="rId10"/>
+    <sheet name="2024.03.22" sheetId="47" r:id="rId11"/>
+    <sheet name="2024.03.21" sheetId="46" r:id="rId12"/>
+    <sheet name="2024.03.20" sheetId="45" r:id="rId13"/>
+    <sheet name="2024.03.19" sheetId="44" r:id="rId14"/>
+    <sheet name="2024.03.18" sheetId="43" r:id="rId15"/>
+    <sheet name="2024.03.15" sheetId="42" r:id="rId16"/>
+    <sheet name="2024.03.14" sheetId="41" r:id="rId17"/>
+    <sheet name="2024.03.13" sheetId="40" r:id="rId18"/>
+    <sheet name="2024.03.12" sheetId="39" r:id="rId19"/>
+    <sheet name="2024.03.11" sheetId="38" r:id="rId20"/>
+    <sheet name="2024.03.07" sheetId="37" r:id="rId21"/>
+    <sheet name="2024.03.06" sheetId="36" r:id="rId22"/>
+    <sheet name="2024.03.05" sheetId="35" r:id="rId23"/>
+    <sheet name="2024.02.29" sheetId="34" r:id="rId24"/>
+    <sheet name="2024.02.28" sheetId="33" r:id="rId25"/>
+    <sheet name="2024.02.27" sheetId="32" r:id="rId26"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="44">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +213,18 @@
   </si>
   <si>
     <t>에디터 작업 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글  쓰기 에디터 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 수정 에디터 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 상세 보기 댓글 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -421,6 +434,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -942,20 +967,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -967,17 +992,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -985,17 +1010,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -1003,17 +1028,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -1021,17 +1046,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -1039,17 +1064,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1057,17 +1082,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1075,17 +1100,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1107,6 +1132,184 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A09DD1F-E08C-4E53-93CF-A0F5A2D16AEC}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="65"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC1D865-F92C-4C8E-B962-F32DDD130B4D}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1284,7 +1487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361A78FC-BDFE-4284-88EF-3C72B79D29E1}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1462,7 +1665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5802F21C-221F-45EE-B72F-8966571D5563}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1644,7 +1847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACD257F-6070-4E93-8984-60D0EBDDDC94}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1826,7 +2029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFBE993-F5E6-4D4D-9248-5D3A52DDF9DA}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2008,7 +2211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0956C01-E2C4-40B1-B2D9-3C4AD5615E6E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2207,7 +2410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C77DD7-2C61-48F8-9364-33F93C1F0696}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2400,7 +2603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238DA81A-D956-47A7-AAD4-C1D35DEF664B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2593,7 +2796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05416A26-6033-4D7A-8914-D7DA628CCE3C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2786,7 +2989,190 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B320C8-4EDE-4F1C-8DD5-935A9FF8179A}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EEC015-DF16-475A-A259-9FC95CB91A71}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2979,202 +3365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE412CCA-23AB-4016-8657-1C3BDF51CB87}">
-  <dimension ref="B2:O14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O14:O15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="38.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:15" ht="38.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68D4942-BE5E-439E-A212-3B61CCE9CD5C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3363,7 +3554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EF298E-C04F-48C4-8D05-B4A530AD3F9B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3552,7 +3743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FA9474-E63D-4D2C-97E0-84F375B3C5D8}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3741,7 +3932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DE9FE6-A145-4620-80E6-12BC615A383E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3930,7 +4121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B15C92E-9484-4ACD-8B61-739E1475E7F6}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4115,7 +4306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E76F57-19D6-41E4-AEBF-F01174A4B387}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4301,6 +4492,201 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE412CCA-23AB-4016-8657-1C3BDF51CB87}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O15" sqref="O14:O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE876288-38B0-47AE-B985-A3C93114CAFD}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4474,7 +4860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1847E7B-958C-4941-B67C-9F13D75475AB}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4652,7 +5038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD61030F-16FF-4AD5-9C7C-119D31645854}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4826,7 +5212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2BD29B-F57B-41A8-B88C-8E8627E5D889}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -5004,7 +5390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA03D491-2F07-474A-A642-13A09594DF0C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -5182,7 +5568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2861677-0F32-4CB5-8FB8-96F87084626B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -5358,182 +5744,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A09DD1F-E08C-4E53-93CF-A0F5A2D16AEC}">
-  <dimension ref="B2:O14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="65"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="38.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:15" ht="38.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,37 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDDEB4B-1354-466E-A85F-F2EC8EF0FB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ADDD82-7F45-451F-9CE9-436B0D1B6AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.04.05" sheetId="56" r:id="rId2"/>
-    <sheet name="2024.04.03" sheetId="55" r:id="rId3"/>
-    <sheet name="2024.04.02" sheetId="54" r:id="rId4"/>
-    <sheet name="2024.04.01" sheetId="53" r:id="rId5"/>
-    <sheet name="2024.03.29" sheetId="52" r:id="rId6"/>
-    <sheet name="2024.03.28" sheetId="51" r:id="rId7"/>
-    <sheet name="2024.03.27" sheetId="50" r:id="rId8"/>
-    <sheet name="2024.03.26" sheetId="49" r:id="rId9"/>
-    <sheet name="2024.03.25" sheetId="48" r:id="rId10"/>
-    <sheet name="2024.03.22" sheetId="47" r:id="rId11"/>
-    <sheet name="2024.03.21" sheetId="46" r:id="rId12"/>
-    <sheet name="2024.03.20" sheetId="45" r:id="rId13"/>
-    <sheet name="2024.03.19" sheetId="44" r:id="rId14"/>
-    <sheet name="2024.03.18" sheetId="43" r:id="rId15"/>
-    <sheet name="2024.03.15" sheetId="42" r:id="rId16"/>
-    <sheet name="2024.03.14" sheetId="41" r:id="rId17"/>
-    <sheet name="2024.03.13" sheetId="40" r:id="rId18"/>
-    <sheet name="2024.03.12" sheetId="39" r:id="rId19"/>
-    <sheet name="2024.03.11" sheetId="38" r:id="rId20"/>
-    <sheet name="2024.03.07" sheetId="37" r:id="rId21"/>
-    <sheet name="2024.03.06" sheetId="36" r:id="rId22"/>
-    <sheet name="2024.03.05" sheetId="35" r:id="rId23"/>
-    <sheet name="2024.02.29" sheetId="34" r:id="rId24"/>
-    <sheet name="2024.02.28" sheetId="33" r:id="rId25"/>
-    <sheet name="2024.02.27" sheetId="32" r:id="rId26"/>
+    <sheet name="2024.04.08" sheetId="57" r:id="rId2"/>
+    <sheet name="2024.04.05" sheetId="56" r:id="rId3"/>
+    <sheet name="2024.04.03" sheetId="55" r:id="rId4"/>
+    <sheet name="2024.04.02" sheetId="54" r:id="rId5"/>
+    <sheet name="2024.04.01" sheetId="53" r:id="rId6"/>
+    <sheet name="2024.03.29" sheetId="52" r:id="rId7"/>
+    <sheet name="2024.03.28" sheetId="51" r:id="rId8"/>
+    <sheet name="2024.03.27" sheetId="50" r:id="rId9"/>
+    <sheet name="2024.03.26" sheetId="49" r:id="rId10"/>
+    <sheet name="2024.03.25" sheetId="48" r:id="rId11"/>
+    <sheet name="2024.03.22" sheetId="47" r:id="rId12"/>
+    <sheet name="2024.03.21" sheetId="46" r:id="rId13"/>
+    <sheet name="2024.03.20" sheetId="45" r:id="rId14"/>
+    <sheet name="2024.03.19" sheetId="44" r:id="rId15"/>
+    <sheet name="2024.03.18" sheetId="43" r:id="rId16"/>
+    <sheet name="2024.03.15" sheetId="42" r:id="rId17"/>
+    <sheet name="2024.03.14" sheetId="41" r:id="rId18"/>
+    <sheet name="2024.03.13" sheetId="40" r:id="rId19"/>
+    <sheet name="2024.03.12" sheetId="39" r:id="rId20"/>
+    <sheet name="2024.03.11" sheetId="38" r:id="rId21"/>
+    <sheet name="2024.03.07" sheetId="37" r:id="rId22"/>
+    <sheet name="2024.03.06" sheetId="36" r:id="rId23"/>
+    <sheet name="2024.03.05" sheetId="35" r:id="rId24"/>
+    <sheet name="2024.02.29" sheetId="34" r:id="rId25"/>
+    <sheet name="2024.02.28" sheetId="33" r:id="rId26"/>
+    <sheet name="2024.02.27" sheetId="32" r:id="rId27"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="46">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,6 +228,14 @@
     <t>게시글 상세 보기 댓글 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">조회수 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -400,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -434,6 +443,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -967,20 +988,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -992,17 +1013,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -1010,17 +1031,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -1028,17 +1049,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -1046,17 +1067,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -1064,17 +1085,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1082,17 +1103,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1100,17 +1121,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1132,6 +1153,184 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2861677-0F32-4CB5-8FB8-96F87084626B}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A09DD1F-E08C-4E53-93CF-A0F5A2D16AEC}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1309,7 +1508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC1D865-F92C-4C8E-B962-F32DDD130B4D}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1487,7 +1686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361A78FC-BDFE-4284-88EF-3C72B79D29E1}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1665,7 +1864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5802F21C-221F-45EE-B72F-8966571D5563}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1847,7 +2046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACD257F-6070-4E93-8984-60D0EBDDDC94}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2029,7 +2228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFBE993-F5E6-4D4D-9248-5D3A52DDF9DA}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2211,7 +2410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0956C01-E2C4-40B1-B2D9-3C4AD5615E6E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2410,7 +2609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C77DD7-2C61-48F8-9364-33F93C1F0696}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2603,7 +2802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238DA81A-D956-47A7-AAD4-C1D35DEF664B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2796,7 +2995,186 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4964A4E0-B604-40EA-9C5A-0695631B6033}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05416A26-6033-4D7A-8914-D7DA628CCE3C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2989,190 +3367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B320C8-4EDE-4F1C-8DD5-935A9FF8179A}">
-  <dimension ref="B2:O14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="38.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:15" ht="38.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EEC015-DF16-475A-A259-9FC95CB91A71}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3365,7 +3560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68D4942-BE5E-439E-A212-3B61CCE9CD5C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3554,7 +3749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EF298E-C04F-48C4-8D05-B4A530AD3F9B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3743,7 +3938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FA9474-E63D-4D2C-97E0-84F375B3C5D8}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3932,7 +4127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DE9FE6-A145-4620-80E6-12BC615A383E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4121,7 +4316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B15C92E-9484-4ACD-8B61-739E1475E7F6}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4306,7 +4501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E76F57-19D6-41E4-AEBF-F01174A4B387}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4492,6 +4687,189 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B320C8-4EDE-4F1C-8DD5-935A9FF8179A}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE412CCA-23AB-4016-8657-1C3BDF51CB87}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4686,7 +5064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE876288-38B0-47AE-B985-A3C93114CAFD}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4860,7 +5238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1847E7B-958C-4941-B67C-9F13D75475AB}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -5038,7 +5416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD61030F-16FF-4AD5-9C7C-119D31645854}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -5212,7 +5590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2BD29B-F57B-41A8-B88C-8E8627E5D889}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -5390,7 +5768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA03D491-2F07-474A-A642-13A09594DF0C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -5566,182 +5944,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2861677-0F32-4CB5-8FB8-96F87084626B}">
-  <dimension ref="B2:O14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="69"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="38.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:15" ht="38.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ADDD82-7F45-451F-9CE9-436B0D1B6AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D5FC58-49B3-4E98-81BA-B72CEBD87CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="45">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,11 +229,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">조회수 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>첨부파일</t>
+    <t>첨부파일 다운로드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -682,6 +678,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -988,20 +987,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1013,17 +1012,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -1031,17 +1030,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -1049,17 +1048,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -1067,17 +1066,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -1085,17 +1084,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1103,17 +1102,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1121,17 +1120,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -3000,7 +2999,7 @@
   <dimension ref="B2:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3035,7 +3034,7 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="93" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="89"/>
@@ -3048,8 +3047,8 @@
       <c r="K3" s="89"/>
       <c r="L3" s="89"/>
       <c r="M3" s="89"/>
-      <c r="N3" s="6" t="s">
-        <v>3</v>
+      <c r="N3" s="93" t="s">
+        <v>5</v>
       </c>
       <c r="O3" s="6"/>
     </row>
@@ -3057,12 +3056,8 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="C4" s="89"/>
+      <c r="N4" s="6"/>
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="2:15">

--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,38 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D5FC58-49B3-4E98-81BA-B72CEBD87CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966798FD-3314-426C-A069-555232964907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.04.08" sheetId="57" r:id="rId2"/>
-    <sheet name="2024.04.05" sheetId="56" r:id="rId3"/>
-    <sheet name="2024.04.03" sheetId="55" r:id="rId4"/>
-    <sheet name="2024.04.02" sheetId="54" r:id="rId5"/>
-    <sheet name="2024.04.01" sheetId="53" r:id="rId6"/>
-    <sheet name="2024.03.29" sheetId="52" r:id="rId7"/>
-    <sheet name="2024.03.28" sheetId="51" r:id="rId8"/>
-    <sheet name="2024.03.27" sheetId="50" r:id="rId9"/>
-    <sheet name="2024.03.26" sheetId="49" r:id="rId10"/>
-    <sheet name="2024.03.25" sheetId="48" r:id="rId11"/>
-    <sheet name="2024.03.22" sheetId="47" r:id="rId12"/>
-    <sheet name="2024.03.21" sheetId="46" r:id="rId13"/>
-    <sheet name="2024.03.20" sheetId="45" r:id="rId14"/>
-    <sheet name="2024.03.19" sheetId="44" r:id="rId15"/>
-    <sheet name="2024.03.18" sheetId="43" r:id="rId16"/>
-    <sheet name="2024.03.15" sheetId="42" r:id="rId17"/>
-    <sheet name="2024.03.14" sheetId="41" r:id="rId18"/>
-    <sheet name="2024.03.13" sheetId="40" r:id="rId19"/>
-    <sheet name="2024.03.12" sheetId="39" r:id="rId20"/>
-    <sheet name="2024.03.11" sheetId="38" r:id="rId21"/>
-    <sheet name="2024.03.07" sheetId="37" r:id="rId22"/>
-    <sheet name="2024.03.06" sheetId="36" r:id="rId23"/>
-    <sheet name="2024.03.05" sheetId="35" r:id="rId24"/>
-    <sheet name="2024.02.29" sheetId="34" r:id="rId25"/>
-    <sheet name="2024.02.28" sheetId="33" r:id="rId26"/>
-    <sheet name="2024.02.27" sheetId="32" r:id="rId27"/>
+    <sheet name="2024.04.11" sheetId="59" r:id="rId2"/>
+    <sheet name="2024.04.09" sheetId="58" r:id="rId3"/>
+    <sheet name="2024.04.08" sheetId="57" r:id="rId4"/>
+    <sheet name="2024.04.05" sheetId="56" r:id="rId5"/>
+    <sheet name="2024.04.03" sheetId="55" r:id="rId6"/>
+    <sheet name="2024.04.02" sheetId="54" r:id="rId7"/>
+    <sheet name="2024.04.01" sheetId="53" r:id="rId8"/>
+    <sheet name="2024.03.29" sheetId="52" r:id="rId9"/>
+    <sheet name="2024.03.28" sheetId="51" r:id="rId10"/>
+    <sheet name="2024.03.27" sheetId="50" r:id="rId11"/>
+    <sheet name="2024.03.26" sheetId="49" r:id="rId12"/>
+    <sheet name="2024.03.25" sheetId="48" r:id="rId13"/>
+    <sheet name="2024.03.22" sheetId="47" r:id="rId14"/>
+    <sheet name="2024.03.21" sheetId="46" r:id="rId15"/>
+    <sheet name="2024.03.20" sheetId="45" r:id="rId16"/>
+    <sheet name="2024.03.19" sheetId="44" r:id="rId17"/>
+    <sheet name="2024.03.18" sheetId="43" r:id="rId18"/>
+    <sheet name="2024.03.15" sheetId="42" r:id="rId19"/>
+    <sheet name="2024.03.14" sheetId="41" r:id="rId20"/>
+    <sheet name="2024.03.13" sheetId="40" r:id="rId21"/>
+    <sheet name="2024.03.12" sheetId="39" r:id="rId22"/>
+    <sheet name="2024.03.11" sheetId="38" r:id="rId23"/>
+    <sheet name="2024.03.07" sheetId="37" r:id="rId24"/>
+    <sheet name="2024.03.06" sheetId="36" r:id="rId25"/>
+    <sheet name="2024.03.05" sheetId="35" r:id="rId26"/>
+    <sheet name="2024.02.29" sheetId="34" r:id="rId27"/>
+    <sheet name="2024.02.28" sheetId="33" r:id="rId28"/>
+    <sheet name="2024.02.27" sheetId="32" r:id="rId29"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="47">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +234,14 @@
     <t>첨부파일 다운로드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>요구사항 분석서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더,푸터 임포트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -405,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -681,6 +691,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -987,20 +1009,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1012,17 +1034,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -1030,17 +1052,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -1048,17 +1070,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -1066,17 +1088,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -1084,17 +1106,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1102,17 +1124,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1120,17 +1142,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1152,6 +1174,362 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2BD29B-F57B-41A8-B88C-8E8627E5D889}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="73"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA03D491-2F07-474A-A642-13A09594DF0C}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2861677-0F32-4CB5-8FB8-96F87084626B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1329,7 +1707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A09DD1F-E08C-4E53-93CF-A0F5A2D16AEC}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1507,7 +1885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC1D865-F92C-4C8E-B962-F32DDD130B4D}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1685,7 +2063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361A78FC-BDFE-4284-88EF-3C72B79D29E1}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1863,7 +2241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5802F21C-221F-45EE-B72F-8966571D5563}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2045,7 +2423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACD257F-6070-4E93-8984-60D0EBDDDC94}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2227,7 +2605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFBE993-F5E6-4D4D-9248-5D3A52DDF9DA}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2409,7 +2787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0956C01-E2C4-40B1-B2D9-3C4AD5615E6E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2608,7 +2986,186 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A1FC0A-B272-43F4-95DE-3AB4F4D35318}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C77DD7-2C61-48F8-9364-33F93C1F0696}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2801,7 +3358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238DA81A-D956-47A7-AAD4-C1D35DEF664B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2994,182 +3551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4964A4E0-B604-40EA-9C5A-0695631B6033}">
-  <dimension ref="B2:O14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="93" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="89"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="38.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:15" ht="38.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05416A26-6033-4D7A-8914-D7DA628CCE3C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3362,7 +3744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EEC015-DF16-475A-A259-9FC95CB91A71}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3555,7 +3937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68D4942-BE5E-439E-A212-3B61CCE9CD5C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3744,7 +4126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EF298E-C04F-48C4-8D05-B4A530AD3F9B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3933,7 +4315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FA9474-E63D-4D2C-97E0-84F375B3C5D8}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4122,7 +4504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DE9FE6-A145-4620-80E6-12BC615A383E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4311,7 +4693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B15C92E-9484-4ACD-8B61-739E1475E7F6}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4496,7 +4878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E76F57-19D6-41E4-AEBF-F01174A4B387}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4682,6 +5064,360 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE25FA0-5BF4-4D17-8A81-3E81C33D51B5}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4964A4E0-B604-40EA-9C5A-0695631B6033}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="89"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B320C8-4EDE-4F1C-8DD5-935A9FF8179A}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4864,7 +5600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE412CCA-23AB-4016-8657-1C3BDF51CB87}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -5059,7 +5795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE876288-38B0-47AE-B985-A3C93114CAFD}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -5233,7 +5969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1847E7B-958C-4941-B67C-9F13D75475AB}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -5411,7 +6147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD61030F-16FF-4AD5-9C7C-119D31645854}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -5583,360 +6319,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2BD29B-F57B-41A8-B88C-8E8627E5D889}">
-  <dimension ref="B2:O14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="73"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="38.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:15" ht="38.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA03D491-2F07-474A-A642-13A09594DF0C}">
-  <dimension ref="B2:O14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="69"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="38.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:15" ht="38.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
+++ b/Documents/1. 업무보고/1. 일일업무/일일 업무 - 김건승.xlsx
@@ -8,40 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EzenCompany\Documents\1. 업무보고\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966798FD-3314-426C-A069-555232964907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D11E86-90F3-4BFB-85FC-280FD760F4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smaple" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="2024.04.11" sheetId="59" r:id="rId2"/>
-    <sheet name="2024.04.09" sheetId="58" r:id="rId3"/>
-    <sheet name="2024.04.08" sheetId="57" r:id="rId4"/>
-    <sheet name="2024.04.05" sheetId="56" r:id="rId5"/>
-    <sheet name="2024.04.03" sheetId="55" r:id="rId6"/>
-    <sheet name="2024.04.02" sheetId="54" r:id="rId7"/>
-    <sheet name="2024.04.01" sheetId="53" r:id="rId8"/>
-    <sheet name="2024.03.29" sheetId="52" r:id="rId9"/>
-    <sheet name="2024.03.28" sheetId="51" r:id="rId10"/>
-    <sheet name="2024.03.27" sheetId="50" r:id="rId11"/>
-    <sheet name="2024.03.26" sheetId="49" r:id="rId12"/>
-    <sheet name="2024.03.25" sheetId="48" r:id="rId13"/>
-    <sheet name="2024.03.22" sheetId="47" r:id="rId14"/>
-    <sheet name="2024.03.21" sheetId="46" r:id="rId15"/>
-    <sheet name="2024.03.20" sheetId="45" r:id="rId16"/>
-    <sheet name="2024.03.19" sheetId="44" r:id="rId17"/>
-    <sheet name="2024.03.18" sheetId="43" r:id="rId18"/>
-    <sheet name="2024.03.15" sheetId="42" r:id="rId19"/>
-    <sheet name="2024.03.14" sheetId="41" r:id="rId20"/>
-    <sheet name="2024.03.13" sheetId="40" r:id="rId21"/>
-    <sheet name="2024.03.12" sheetId="39" r:id="rId22"/>
-    <sheet name="2024.03.11" sheetId="38" r:id="rId23"/>
-    <sheet name="2024.03.07" sheetId="37" r:id="rId24"/>
-    <sheet name="2024.03.06" sheetId="36" r:id="rId25"/>
-    <sheet name="2024.03.05" sheetId="35" r:id="rId26"/>
-    <sheet name="2024.02.29" sheetId="34" r:id="rId27"/>
-    <sheet name="2024.02.28" sheetId="33" r:id="rId28"/>
-    <sheet name="2024.02.27" sheetId="32" r:id="rId29"/>
+    <sheet name="2024.04.12" sheetId="60" r:id="rId2"/>
+    <sheet name="2024.04.11" sheetId="59" r:id="rId3"/>
+    <sheet name="2024.04.09" sheetId="58" r:id="rId4"/>
+    <sheet name="2024.04.08" sheetId="57" r:id="rId5"/>
+    <sheet name="2024.04.05" sheetId="56" r:id="rId6"/>
+    <sheet name="2024.04.03" sheetId="55" r:id="rId7"/>
+    <sheet name="2024.04.02" sheetId="54" r:id="rId8"/>
+    <sheet name="2024.04.01" sheetId="53" r:id="rId9"/>
+    <sheet name="2024.03.29" sheetId="52" r:id="rId10"/>
+    <sheet name="2024.03.28" sheetId="51" r:id="rId11"/>
+    <sheet name="2024.03.27" sheetId="50" r:id="rId12"/>
+    <sheet name="2024.03.26" sheetId="49" r:id="rId13"/>
+    <sheet name="2024.03.25" sheetId="48" r:id="rId14"/>
+    <sheet name="2024.03.22" sheetId="47" r:id="rId15"/>
+    <sheet name="2024.03.21" sheetId="46" r:id="rId16"/>
+    <sheet name="2024.03.20" sheetId="45" r:id="rId17"/>
+    <sheet name="2024.03.19" sheetId="44" r:id="rId18"/>
+    <sheet name="2024.03.18" sheetId="43" r:id="rId19"/>
+    <sheet name="2024.03.15" sheetId="42" r:id="rId20"/>
+    <sheet name="2024.03.14" sheetId="41" r:id="rId21"/>
+    <sheet name="2024.03.13" sheetId="40" r:id="rId22"/>
+    <sheet name="2024.03.12" sheetId="39" r:id="rId23"/>
+    <sheet name="2024.03.11" sheetId="38" r:id="rId24"/>
+    <sheet name="2024.03.07" sheetId="37" r:id="rId25"/>
+    <sheet name="2024.03.06" sheetId="36" r:id="rId26"/>
+    <sheet name="2024.03.05" sheetId="35" r:id="rId27"/>
+    <sheet name="2024.02.29" sheetId="34" r:id="rId28"/>
+    <sheet name="2024.02.28" sheetId="33" r:id="rId29"/>
+    <sheet name="2024.02.27" sheetId="32" r:id="rId30"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="47">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -691,6 +692,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1009,20 +1022,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
       <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1034,17 +1047,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
@@ -1052,17 +1065,17 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
@@ -1070,17 +1083,17 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
@@ -1088,17 +1101,17 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
@@ -1106,17 +1119,17 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="8"/>
       <c r="O7" s="1"/>
     </row>
@@ -1124,17 +1137,17 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
       <c r="N8" s="8"/>
       <c r="O8" s="1"/>
     </row>
@@ -1142,17 +1155,17 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
       <c r="N9" s="10"/>
       <c r="O9" s="2"/>
     </row>
@@ -1174,6 +1187,180 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD61030F-16FF-4AD5-9C7C-119D31645854}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="77"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2BD29B-F57B-41A8-B88C-8E8627E5D889}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1351,7 +1538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA03D491-2F07-474A-A642-13A09594DF0C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1529,7 +1716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2861677-0F32-4CB5-8FB8-96F87084626B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1707,7 +1894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A09DD1F-E08C-4E53-93CF-A0F5A2D16AEC}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -1885,7 +2072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC1D865-F92C-4C8E-B962-F32DDD130B4D}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2063,7 +2250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361A78FC-BDFE-4284-88EF-3C72B79D29E1}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2241,7 +2428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5802F21C-221F-45EE-B72F-8966571D5563}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2423,7 +2610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACD257F-6070-4E93-8984-60D0EBDDDC94}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2605,7 +2792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFBE993-F5E6-4D4D-9248-5D3A52DDF9DA}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2787,7 +2974,182 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCEFC48-D6B1-44A3-BF61-4B2ACC79F35A}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="98"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0956C01-E2C4-40B1-B2D9-3C4AD5615E6E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -2986,186 +3348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A1FC0A-B272-43F4-95DE-3AB4F4D35318}">
-  <dimension ref="B2:O14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="94" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="94" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="38.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:15" ht="38.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C77DD7-2C61-48F8-9364-33F93C1F0696}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3358,7 +3541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238DA81A-D956-47A7-AAD4-C1D35DEF664B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3551,7 +3734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05416A26-6033-4D7A-8914-D7DA628CCE3C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3744,7 +3927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EEC015-DF16-475A-A259-9FC95CB91A71}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -3937,7 +4120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68D4942-BE5E-439E-A212-3B61CCE9CD5C}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4126,7 +4309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EF298E-C04F-48C4-8D05-B4A530AD3F9B}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4315,7 +4498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FA9474-E63D-4D2C-97E0-84F375B3C5D8}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4504,7 +4687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DE9FE6-A145-4620-80E6-12BC615A383E}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4693,7 +4876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B15C92E-9484-4ACD-8B61-739E1475E7F6}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -4878,7 +5061,186 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A1FC0A-B272-43F4-95DE-3AB4F4D35318}">
+  <dimension ref="B2:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="15" max="15" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E76F57-19D6-41E4-AEBF-F01174A4B387}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -5063,7 +5425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE25FA0-5BF4-4D17-8A81-3E81C33D51B5}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -5242,7 +5604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4964A4E0-B604-40EA-9C5A-0695631B6033}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -5417,7 +5779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B320C8-4EDE-4F1C-8DD5-935A9FF8179A}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -5600,7 +5962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE412CCA-23AB-4016-8657-1C3BDF51CB87}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -5795,7 +6157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE876288-38B0-47AE-B985-A3C93114CAFD}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -5969,7 +6331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1847E7B-958C-4941-B67C-9F13D75475AB}">
   <dimension ref="B2:O14"/>
   <sheetViews>
@@ -6145,178 +6507,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD61030F-16FF-4AD5-9C7C-119D31645854}">
-  <dimension ref="B2:O14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="15" max="15" width="20.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="77"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="38.25">
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:15" ht="38.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
 </file>